--- a/FileTestCase/TestCase.xlsx
+++ b/FileTestCase/TestCase.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhW2P8Pb+Fd9kLn446pk9BtzsXedg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgK9TrEn8iijf9wE2E/+bFRqv+/6g=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="259">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Chưa fix</t>
+  </si>
+  <si>
+    <t>AccountServiceTest</t>
   </si>
   <si>
     <t>GetAccountReturnOrNot</t>
@@ -315,6 +318,9 @@
     <t>Kiểm tra xem khi xóa 1 Account không tồn tại thì hệ thống có báo lỗi không</t>
   </si>
   <si>
+    <t>AuthorServiceTest</t>
+  </si>
+  <si>
     <t>GetAuthorReturnOrNot</t>
   </si>
   <si>
@@ -394,6 +400,9 @@
   </si>
   <si>
     <t>Kiểm tra xem hệ thống có xóa Author đúng không</t>
+  </si>
+  <si>
+    <t>BookServiceTest</t>
   </si>
   <si>
     <t>GetBookReturnOrNot</t>
@@ -558,6 +567,9 @@
     <t xml:space="preserve">Kiểm tra xem hệ thống có phát hiện lỗi khi xóa sách không tồn tại </t>
   </si>
   <si>
+    <t>CategoryServiceTest</t>
+  </si>
+  <si>
     <t>GetCategoryReturnOrNot</t>
   </si>
   <si>
@@ -619,6 +631,9 @@
   </si>
   <si>
     <t>Kiểm tra xem hệ thống có xóa thể loại không</t>
+  </si>
+  <si>
+    <t>Lending_Book_Test</t>
   </si>
   <si>
     <t>GetLendingTicketTest</t>
@@ -705,6 +720,24 @@
     <t>Kiểm tra xem hệ thống có cập nhập phiếu mượn không</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Times"/>
+        <color rgb="FF4472C4"/>
+        <sz val="25.0"/>
+      </rPr>
+      <t>RRe</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="25.0"/>
+      </rPr>
+      <t>Reserve_Book_Test</t>
+    </r>
+  </si>
+  <si>
     <t>GetReserveTicketTest</t>
   </si>
   <si>
@@ -753,6 +786,9 @@
     <t>Số sách trong phiếu đặt + 1</t>
   </si>
   <si>
+    <t>LibraryCardTest</t>
+  </si>
+  <si>
     <t>LibraryCardActive</t>
   </si>
   <si>
@@ -778,7 +814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -832,6 +868,11 @@
       <name val="Times"/>
     </font>
     <font>
+      <sz val="25.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times"/>
+    </font>
+    <font>
       <sz val="30.0"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
@@ -839,6 +880,16 @@
     <font>
       <sz val="13.0"/>
       <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="25.0"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="25.0"/>
+      <color rgb="FF4472C4"/>
       <name val="Times"/>
     </font>
   </fonts>
@@ -990,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1043,13 +1094,16 @@
     <xf borderId="12" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1074,14 +1128,20 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,45 +1663,30 @@
     </row>
     <row r="9" ht="33.0" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="22">
-        <f t="shared" ref="B9:B89" si="1">Row(B1)</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="16"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -1649,45 +1694,45 @@
     </row>
     <row r="10" ht="33.0" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="24">
+        <f t="shared" ref="B10:B17" si="1">Row(B1)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="28" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="27" t="s">
-        <v>21</v>
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="29"/>
-      <c r="W10" s="28"/>
+      <c r="W10" s="29"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -1695,45 +1740,45 @@
     </row>
     <row r="11" ht="33.0" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="22">
+      <c r="B11" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="S11" s="16"/>
-      <c r="T11" s="27" t="s">
-        <v>21</v>
-      </c>
       <c r="U11" s="16"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="28"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="29"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -1741,45 +1786,45 @@
     </row>
     <row r="12" ht="33.0" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="22">
+      <c r="B12" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="24"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="30" t="s">
-        <v>28</v>
+      <c r="P12" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="Q12" s="16"/>
-      <c r="R12" s="23" t="s">
-        <v>16</v>
+      <c r="R12" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="S12" s="16"/>
-      <c r="T12" s="27" t="s">
-        <v>21</v>
+      <c r="T12" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U12" s="16"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="28"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="29"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -1787,45 +1832,45 @@
     </row>
     <row r="13" ht="33.0" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="22">
+      <c r="B13" s="24">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="M13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="31">
-        <v>-99.0</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="24"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="23" t="s">
-        <v>31</v>
+      <c r="P13" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="Q13" s="16"/>
-      <c r="R13" s="23" t="s">
-        <v>16</v>
+      <c r="R13" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="S13" s="16"/>
-      <c r="T13" s="27" t="s">
-        <v>21</v>
+      <c r="T13" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U13" s="16"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="28"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="29"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -1833,45 +1878,45 @@
     </row>
     <row r="14" ht="33.0" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="22">
+      <c r="B14" s="24">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="32">
+        <v>-99.0</v>
+      </c>
+      <c r="M14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" s="24"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="23" t="b">
-        <v>1</v>
+      <c r="P14" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="Q14" s="16"/>
-      <c r="R14" s="23" t="s">
-        <v>16</v>
+      <c r="R14" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="S14" s="16"/>
-      <c r="T14" s="27" t="s">
-        <v>21</v>
+      <c r="T14" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U14" s="16"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="28"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="29"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -1879,47 +1924,45 @@
     </row>
     <row r="15" ht="33.0" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="22">
+      <c r="B15" s="24">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="30" t="b">
+      <c r="M15" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="N15" s="24"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="16"/>
-      <c r="P15" s="30" t="b">
-        <v>0</v>
+      <c r="P15" s="25" t="b">
+        <v>1</v>
       </c>
       <c r="Q15" s="16"/>
-      <c r="R15" s="30" t="s">
-        <v>38</v>
+      <c r="R15" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="S15" s="16"/>
-      <c r="T15" s="27" t="s">
-        <v>21</v>
+      <c r="T15" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U15" s="16"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="33" t="s">
-        <v>39</v>
-      </c>
+      <c r="V15" s="30"/>
+      <c r="W15" s="29"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -1927,45 +1970,47 @@
     </row>
     <row r="16" ht="33.0" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="22">
+      <c r="B16" s="24">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="23"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="F16" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="30" t="b">
+      <c r="L16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N16" s="24"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="16"/>
-      <c r="P16" s="30" t="b">
-        <v>1</v>
+      <c r="P16" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q16" s="16"/>
-      <c r="R16" s="30" t="s">
-        <v>16</v>
+      <c r="R16" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S16" s="16"/>
-      <c r="T16" s="27" t="s">
-        <v>21</v>
+      <c r="T16" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U16" s="16"/>
       <c r="V16" s="29"/>
-      <c r="W16" s="28"/>
+      <c r="W16" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
@@ -1973,45 +2018,45 @@
     </row>
     <row r="17" ht="33.0" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="22">
+      <c r="B17" s="24">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="30" t="b">
+      <c r="M17" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N17" s="24"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="16"/>
-      <c r="P17" s="30" t="b">
+      <c r="P17" s="31" t="b">
         <v>1</v>
       </c>
       <c r="Q17" s="16"/>
-      <c r="R17" s="30" t="s">
-        <v>16</v>
+      <c r="R17" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S17" s="16"/>
-      <c r="T17" s="27" t="s">
-        <v>21</v>
+      <c r="T17" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U17" s="16"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="28"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="29"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -2019,47 +2064,45 @@
     </row>
     <row r="18" ht="33.0" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="22">
-        <f t="shared" si="1"/>
+      <c r="B18" s="24">
+        <f t="shared" ref="B18:B36" si="2">Row(B10)</f>
         <v>10</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" s="30" t="b">
+      <c r="M18" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N18" s="24"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="30" t="b">
-        <v>0</v>
+      <c r="P18" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q18" s="16"/>
-      <c r="R18" s="30" t="s">
-        <v>38</v>
+      <c r="R18" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S18" s="16"/>
-      <c r="T18" s="27" t="s">
-        <v>21</v>
+      <c r="T18" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U18" s="16"/>
-      <c r="V18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="28"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="29"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -2067,45 +2110,47 @@
     </row>
     <row r="19" ht="33.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="22">
-        <f t="shared" si="1"/>
+      <c r="B19" s="24">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="30" t="b">
+      <c r="M19" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N19" s="24"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="16"/>
-      <c r="P19" s="30" t="b">
-        <v>1</v>
+      <c r="P19" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q19" s="16"/>
-      <c r="R19" s="30" t="s">
-        <v>16</v>
+      <c r="R19" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S19" s="16"/>
-      <c r="T19" s="27" t="s">
-        <v>21</v>
+      <c r="T19" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U19" s="16"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="28"/>
+      <c r="V19" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" s="29"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -2113,47 +2158,45 @@
     </row>
     <row r="20" ht="33.0" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="22">
-        <f t="shared" si="1"/>
+      <c r="B20" s="24">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="30" t="b">
+      <c r="M20" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N20" s="24"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="30" t="s">
-        <v>38</v>
+      <c r="P20" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q20" s="16"/>
-      <c r="R20" s="30" t="s">
-        <v>38</v>
+      <c r="R20" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S20" s="16"/>
-      <c r="T20" s="27" t="s">
-        <v>21</v>
+      <c r="T20" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U20" s="16"/>
-      <c r="V20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="28"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="29"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -2161,45 +2204,47 @@
     </row>
     <row r="21" ht="33.0" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="22">
-        <f t="shared" si="1"/>
+      <c r="B21" s="24">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="30" t="b">
+      <c r="M21" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N21" s="24"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="30" t="b">
-        <v>1</v>
+      <c r="P21" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="Q21" s="16"/>
-      <c r="R21" s="30" t="s">
-        <v>16</v>
+      <c r="R21" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S21" s="16"/>
-      <c r="T21" s="27" t="s">
-        <v>21</v>
+      <c r="T21" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U21" s="16"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="28"/>
+      <c r="V21" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W21" s="29"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -2207,47 +2252,45 @@
     </row>
     <row r="22" ht="33.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="22">
-        <f t="shared" si="1"/>
+      <c r="B22" s="24">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="30" t="b">
+      <c r="M22" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N22" s="24"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="30" t="b">
-        <v>0</v>
+      <c r="P22" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q22" s="16"/>
-      <c r="R22" s="30" t="s">
-        <v>38</v>
+      <c r="R22" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S22" s="16"/>
-      <c r="T22" s="27" t="s">
-        <v>21</v>
+      <c r="T22" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U22" s="16"/>
-      <c r="V22" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="28"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="29"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -2255,47 +2298,47 @@
     </row>
     <row r="23" ht="33.0" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="22">
-        <f t="shared" si="1"/>
+      <c r="B23" s="24">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="30" t="b">
+      <c r="M23" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N23" s="24"/>
+      <c r="N23" s="23"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="30" t="b">
+      <c r="P23" s="31" t="b">
         <v>0</v>
       </c>
       <c r="Q23" s="16"/>
-      <c r="R23" s="30" t="s">
-        <v>38</v>
+      <c r="R23" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S23" s="16"/>
-      <c r="T23" s="27" t="s">
-        <v>21</v>
+      <c r="T23" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U23" s="16"/>
-      <c r="V23" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="W23" s="28"/>
+      <c r="V23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W23" s="29"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
@@ -2303,47 +2346,47 @@
     </row>
     <row r="24" ht="33.0" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="22">
-        <f t="shared" si="1"/>
+      <c r="B24" s="24">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" s="30" t="b">
+      <c r="M24" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N24" s="24"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="30" t="b">
+      <c r="P24" s="31" t="b">
         <v>0</v>
       </c>
       <c r="Q24" s="16"/>
-      <c r="R24" s="30" t="s">
-        <v>38</v>
+      <c r="R24" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S24" s="16"/>
-      <c r="T24" s="27" t="s">
-        <v>21</v>
+      <c r="T24" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U24" s="16"/>
-      <c r="V24" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="W24" s="28"/>
+      <c r="V24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W24" s="29"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -2351,45 +2394,47 @@
     </row>
     <row r="25" ht="33.0" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="22">
-        <f t="shared" si="1"/>
+      <c r="B25" s="24">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" s="30" t="b">
+      <c r="M25" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N25" s="24"/>
+      <c r="N25" s="23"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="30" t="b">
-        <v>1</v>
+      <c r="P25" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q25" s="16"/>
-      <c r="R25" s="30" t="s">
-        <v>16</v>
+      <c r="R25" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S25" s="16"/>
-      <c r="T25" s="27" t="s">
-        <v>21</v>
+      <c r="T25" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U25" s="16"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="28"/>
+      <c r="V25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25" s="29"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -2397,47 +2442,45 @@
     </row>
     <row r="26" ht="33.0" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="22">
-        <f t="shared" si="1"/>
+      <c r="B26" s="24">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="30" t="b">
+      <c r="M26" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N26" s="24"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="30" t="b">
-        <v>0</v>
+      <c r="P26" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q26" s="16"/>
-      <c r="R26" s="30" t="s">
-        <v>38</v>
+      <c r="R26" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S26" s="16"/>
-      <c r="T26" s="27" t="s">
-        <v>21</v>
+      <c r="T26" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U26" s="16"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="33" t="s">
-        <v>73</v>
-      </c>
+      <c r="V26" s="30"/>
+      <c r="W26" s="29"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -2445,47 +2488,47 @@
     </row>
     <row r="27" ht="33.0" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="22">
-        <f t="shared" si="1"/>
+      <c r="B27" s="24">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="23"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="16"/>
+      <c r="T27" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" s="16"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M27" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="S27" s="16"/>
-      <c r="T27" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="U27" s="16"/>
-      <c r="V27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W27" s="28"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -2493,45 +2536,47 @@
     </row>
     <row r="28" ht="33.0" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="22">
-        <f t="shared" si="1"/>
+      <c r="B28" s="24">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="M28" s="30" t="b">
+      <c r="L28" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="M28" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N28" s="24"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="30" t="b">
-        <v>1</v>
+      <c r="P28" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q28" s="16"/>
-      <c r="R28" s="30" t="s">
-        <v>16</v>
+      <c r="R28" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S28" s="16"/>
-      <c r="T28" s="27" t="s">
-        <v>21</v>
+      <c r="T28" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U28" s="16"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="28"/>
+      <c r="V28" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="29"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
@@ -2539,47 +2584,45 @@
     </row>
     <row r="29" ht="33.0" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="22">
-        <f t="shared" si="1"/>
+      <c r="B29" s="24">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="M29" s="30" t="b">
+      <c r="M29" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N29" s="24"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="16"/>
-      <c r="P29" s="30" t="b">
-        <v>0</v>
+      <c r="P29" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q29" s="16"/>
-      <c r="R29" s="30" t="s">
-        <v>38</v>
+      <c r="R29" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S29" s="16"/>
-      <c r="T29" s="27" t="s">
-        <v>21</v>
+      <c r="T29" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U29" s="16"/>
-      <c r="V29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="28"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="29"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
@@ -2587,47 +2630,47 @@
     </row>
     <row r="30" ht="33.0" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="22">
-        <f t="shared" si="1"/>
+      <c r="B30" s="24">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="M30" s="30" t="b">
+      <c r="M30" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N30" s="24"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="30" t="b">
+      <c r="P30" s="31" t="b">
         <v>0</v>
       </c>
       <c r="Q30" s="16"/>
-      <c r="R30" s="30" t="s">
-        <v>38</v>
+      <c r="R30" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S30" s="16"/>
-      <c r="T30" s="27" t="s">
-        <v>21</v>
+      <c r="T30" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U30" s="16"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="33" t="s">
-        <v>39</v>
-      </c>
+      <c r="V30" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="29"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
@@ -2635,45 +2678,47 @@
     </row>
     <row r="31" ht="33.0" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="22">
-        <f t="shared" si="1"/>
+      <c r="B31" s="24">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M31" s="30" t="b">
+      <c r="M31" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N31" s="24"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="30" t="b">
-        <v>1</v>
+      <c r="P31" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q31" s="16"/>
-      <c r="R31" s="30" t="s">
-        <v>16</v>
+      <c r="R31" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S31" s="16"/>
-      <c r="T31" s="27" t="s">
-        <v>88</v>
+      <c r="T31" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="U31" s="16"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="28"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -2681,47 +2726,45 @@
     </row>
     <row r="32" ht="33.0" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="22">
-        <f t="shared" si="1"/>
+      <c r="B32" s="24">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="23"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="16"/>
+      <c r="T32" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="M32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="S32" s="16"/>
-      <c r="T32" s="27" t="s">
-        <v>88</v>
-      </c>
       <c r="U32" s="16"/>
-      <c r="V32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W32" s="28"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="29"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
@@ -2729,45 +2772,47 @@
     </row>
     <row r="33" ht="33.0" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="22">
-        <f t="shared" si="1"/>
+      <c r="B33" s="24">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M33" s="30" t="b">
+      <c r="M33" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N33" s="24"/>
+      <c r="N33" s="23"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="30" t="b">
-        <v>1</v>
+      <c r="P33" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q33" s="16"/>
-      <c r="R33" s="30" t="s">
-        <v>16</v>
+      <c r="R33" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S33" s="16"/>
-      <c r="T33" s="27" t="s">
-        <v>88</v>
+      <c r="T33" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U33" s="16"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="28"/>
+      <c r="V33" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="29"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
@@ -2775,47 +2820,45 @@
     </row>
     <row r="34" ht="33.0" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="22">
-        <f t="shared" si="1"/>
+      <c r="B34" s="24">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N34" s="24"/>
+      <c r="L34" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="M34" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" s="23"/>
       <c r="O34" s="16"/>
-      <c r="P34" s="30">
-        <v>0.0</v>
+      <c r="P34" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q34" s="16"/>
-      <c r="R34" s="30" t="s">
-        <v>38</v>
+      <c r="R34" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S34" s="16"/>
-      <c r="T34" s="27" t="s">
-        <v>88</v>
+      <c r="T34" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U34" s="16"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="33" t="s">
-        <v>39</v>
-      </c>
+      <c r="V34" s="30"/>
+      <c r="W34" s="29"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -2823,47 +2866,47 @@
     </row>
     <row r="35" ht="33.0" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="22">
-        <f t="shared" si="1"/>
+      <c r="B35" s="24">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="M35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" s="24"/>
+      <c r="M35" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="N35" s="23"/>
       <c r="O35" s="16"/>
-      <c r="P35" s="30" t="b">
-        <v>0</v>
+      <c r="P35" s="31">
+        <v>0.0</v>
       </c>
       <c r="Q35" s="16"/>
-      <c r="R35" s="30" t="s">
-        <v>38</v>
+      <c r="R35" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S35" s="16"/>
-      <c r="T35" s="27" t="s">
-        <v>88</v>
+      <c r="T35" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U35" s="16"/>
-      <c r="V35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35" s="28"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -2871,45 +2914,47 @@
     </row>
     <row r="36" ht="33.0" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="22">
-        <f t="shared" si="1"/>
+      <c r="B36" s="24">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M36" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N36" s="24"/>
+      <c r="L36" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" s="23"/>
       <c r="O36" s="16"/>
-      <c r="P36" s="30">
-        <v>1.0</v>
+      <c r="P36" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q36" s="16"/>
-      <c r="R36" s="30" t="s">
-        <v>16</v>
+      <c r="R36" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S36" s="16"/>
-      <c r="T36" s="27" t="s">
-        <v>88</v>
+      <c r="T36" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U36" s="16"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="28"/>
+      <c r="V36" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W36" s="29"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -2917,45 +2962,30 @@
     </row>
     <row r="37" ht="33.0" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="22">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="S37" s="16"/>
-      <c r="T37" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="U37" s="16"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="28"/>
+      <c r="B37" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="16"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -2963,45 +2993,45 @@
     </row>
     <row r="38" ht="33.0" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="22">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="24"/>
+      <c r="B38" s="24">
+        <f t="shared" ref="B38:B45" si="3">Row(B29)</f>
+        <v>29</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="23"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
+      <c r="F38" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="M38" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N38" s="24"/>
+      <c r="L38" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M38" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="N38" s="23"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="30" t="b">
-        <v>1</v>
+      <c r="P38" s="31">
+        <v>1.0</v>
       </c>
       <c r="Q38" s="16"/>
-      <c r="R38" s="30" t="s">
-        <v>16</v>
+      <c r="R38" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S38" s="16"/>
-      <c r="T38" s="27" t="s">
-        <v>88</v>
+      <c r="T38" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U38" s="16"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="28"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="29"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -3009,45 +3039,45 @@
     </row>
     <row r="39" ht="33.0" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="22">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="24"/>
+      <c r="B39" s="24">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="23"/>
       <c r="E39" s="16"/>
-      <c r="F39" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+      <c r="F39" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="16"/>
-      <c r="L39" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="M39" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N39" s="24"/>
+      <c r="L39" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="N39" s="23"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="30" t="b">
-        <v>1</v>
+      <c r="P39" s="31">
+        <v>0.0</v>
       </c>
       <c r="Q39" s="16"/>
-      <c r="R39" s="30" t="s">
-        <v>16</v>
+      <c r="R39" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S39" s="16"/>
-      <c r="T39" s="27" t="s">
-        <v>88</v>
+      <c r="T39" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U39" s="16"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="28"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="29"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
@@ -3055,45 +3085,45 @@
     </row>
     <row r="40" ht="33.0" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="22">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="24"/>
+      <c r="B40" s="24">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="23"/>
       <c r="E40" s="16"/>
-      <c r="F40" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="F40" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="16"/>
-      <c r="L40" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M40" s="30" t="b">
+      <c r="L40" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M40" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N40" s="24"/>
+      <c r="N40" s="23"/>
       <c r="O40" s="16"/>
-      <c r="P40" s="30" t="b">
+      <c r="P40" s="31" t="b">
         <v>1</v>
       </c>
       <c r="Q40" s="16"/>
-      <c r="R40" s="30" t="s">
-        <v>16</v>
+      <c r="R40" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S40" s="16"/>
-      <c r="T40" s="27" t="s">
-        <v>88</v>
+      <c r="T40" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U40" s="16"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="28"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="29"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
@@ -3101,47 +3131,45 @@
     </row>
     <row r="41" ht="33.0" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="22">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="24"/>
+      <c r="B41" s="24">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="23"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
+      <c r="F41" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="16"/>
-      <c r="L41" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="M41" s="30" t="b">
+      <c r="L41" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M41" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N41" s="24"/>
+      <c r="N41" s="23"/>
       <c r="O41" s="16"/>
-      <c r="P41" s="30" t="b">
-        <v>0</v>
+      <c r="P41" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q41" s="16"/>
-      <c r="R41" s="30" t="s">
-        <v>38</v>
+      <c r="R41" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S41" s="16"/>
-      <c r="T41" s="27" t="s">
-        <v>88</v>
+      <c r="T41" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U41" s="16"/>
-      <c r="V41" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W41" s="28"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="29"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -3149,47 +3177,45 @@
     </row>
     <row r="42" ht="33.0" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="22">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="24"/>
+      <c r="B42" s="24">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="23"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
+      <c r="F42" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
       <c r="K42" s="16"/>
-      <c r="L42" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="M42" s="30" t="b">
+      <c r="L42" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N42" s="24"/>
+      <c r="N42" s="23"/>
       <c r="O42" s="16"/>
-      <c r="P42" s="30" t="b">
-        <v>0</v>
+      <c r="P42" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q42" s="16"/>
-      <c r="R42" s="30" t="s">
-        <v>38</v>
+      <c r="R42" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S42" s="16"/>
-      <c r="T42" s="27" t="s">
-        <v>88</v>
+      <c r="T42" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U42" s="16"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="34" t="s">
-        <v>39</v>
-      </c>
+      <c r="V42" s="30"/>
+      <c r="W42" s="29"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
@@ -3197,45 +3223,47 @@
     </row>
     <row r="43" ht="33.0" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="22">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="24"/>
+      <c r="B43" s="24">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="23"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
+      <c r="F43" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
       <c r="K43" s="16"/>
-      <c r="L43" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="M43" s="30" t="b">
+      <c r="L43" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N43" s="24"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="16"/>
-      <c r="P43" s="30" t="b">
-        <v>1</v>
+      <c r="P43" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q43" s="16"/>
-      <c r="R43" s="30" t="s">
-        <v>16</v>
+      <c r="R43" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S43" s="16"/>
-      <c r="T43" s="27" t="s">
-        <v>88</v>
+      <c r="T43" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U43" s="16"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="28"/>
+      <c r="V43" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W43" s="29"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
@@ -3243,47 +3271,47 @@
     </row>
     <row r="44" ht="33.0" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="22">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="24"/>
+      <c r="B44" s="24">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="23"/>
       <c r="E44" s="16"/>
-      <c r="F44" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
+      <c r="F44" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="16"/>
-      <c r="L44" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="M44" s="30" t="b">
+      <c r="L44" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="M44" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N44" s="24"/>
+      <c r="N44" s="23"/>
       <c r="O44" s="16"/>
-      <c r="P44" s="30" t="b">
+      <c r="P44" s="31" t="b">
         <v>0</v>
       </c>
       <c r="Q44" s="16"/>
-      <c r="R44" s="30" t="s">
-        <v>38</v>
+      <c r="R44" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S44" s="16"/>
-      <c r="T44" s="27" t="s">
-        <v>88</v>
+      <c r="T44" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U44" s="16"/>
-      <c r="V44" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W44" s="28"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -3291,45 +3319,45 @@
     </row>
     <row r="45" ht="33.0" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="22">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="24"/>
+      <c r="B45" s="24">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="23"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
+      <c r="F45" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="16"/>
-      <c r="L45" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="M45" s="30" t="b">
+      <c r="L45" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N45" s="24"/>
+      <c r="N45" s="23"/>
       <c r="O45" s="16"/>
-      <c r="P45" s="30" t="b">
+      <c r="P45" s="31" t="b">
         <v>1</v>
       </c>
       <c r="Q45" s="16"/>
-      <c r="R45" s="30" t="s">
-        <v>16</v>
+      <c r="R45" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S45" s="16"/>
-      <c r="T45" s="27" t="s">
-        <v>88</v>
+      <c r="T45" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U45" s="16"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="28"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="29"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
@@ -3337,45 +3365,47 @@
     </row>
     <row r="46" ht="33.0" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="22">
-        <f t="shared" si="1"/>
+      <c r="B46" s="24">
+        <f t="shared" ref="B46:B47" si="4">Row(B38)</f>
         <v>38</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="24"/>
+      <c r="C46" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="23"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
+      <c r="F46" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="16"/>
-      <c r="L46" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M46" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N46" s="24"/>
+      <c r="L46" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" s="23"/>
       <c r="O46" s="16"/>
-      <c r="P46" s="30" t="s">
-        <v>129</v>
+      <c r="P46" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q46" s="16"/>
-      <c r="R46" s="30" t="s">
-        <v>16</v>
+      <c r="R46" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S46" s="16"/>
-      <c r="T46" s="27" t="s">
-        <v>88</v>
+      <c r="T46" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U46" s="16"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="28"/>
+      <c r="V46" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W46" s="29"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
@@ -3383,45 +3413,45 @@
     </row>
     <row r="47" ht="33.0" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="22">
-        <f t="shared" si="1"/>
+      <c r="B47" s="24">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="C47" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="24"/>
+      <c r="C47" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="23"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
+      <c r="F47" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="16"/>
-      <c r="L47" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N47" s="24"/>
+      <c r="L47" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="M47" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" s="23"/>
       <c r="O47" s="16"/>
-      <c r="P47" s="30">
-        <v>0.0</v>
+      <c r="P47" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q47" s="16"/>
-      <c r="R47" s="30" t="s">
-        <v>16</v>
+      <c r="R47" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S47" s="16"/>
-      <c r="T47" s="27" t="s">
-        <v>88</v>
+      <c r="T47" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U47" s="16"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="28"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="29"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
@@ -3429,45 +3459,30 @@
     </row>
     <row r="48" ht="33.0" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="22">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="M48" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N48" s="24"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="S48" s="16"/>
-      <c r="T48" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="U48" s="16"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="28"/>
+      <c r="B48" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="16"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -3475,45 +3490,45 @@
     </row>
     <row r="49" ht="33.0" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="22">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="24"/>
+      <c r="B49" s="24">
+        <f t="shared" ref="B49:B56" si="5">Row(B40)</f>
+        <v>40</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="23"/>
       <c r="E49" s="16"/>
-      <c r="F49" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
+      <c r="F49" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="16"/>
-      <c r="L49" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="M49" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="N49" s="24"/>
+      <c r="L49" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M49" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="N49" s="23"/>
       <c r="O49" s="16"/>
-      <c r="P49" s="30" t="s">
-        <v>138</v>
+      <c r="P49" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="Q49" s="16"/>
-      <c r="R49" s="30" t="s">
-        <v>16</v>
+      <c r="R49" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S49" s="16"/>
-      <c r="T49" s="27" t="s">
-        <v>88</v>
+      <c r="T49" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U49" s="16"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="28"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="29"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -3521,45 +3536,45 @@
     </row>
     <row r="50" ht="33.0" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="22">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="24"/>
+      <c r="B50" s="24">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="23"/>
       <c r="E50" s="16"/>
-      <c r="F50" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
+      <c r="F50" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
       <c r="K50" s="16"/>
-      <c r="L50" s="35">
-        <v>-99.0</v>
-      </c>
-      <c r="M50" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="N50" s="24"/>
+      <c r="L50" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="N50" s="23"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="30" t="s">
-        <v>31</v>
+      <c r="P50" s="31">
+        <v>0.0</v>
       </c>
       <c r="Q50" s="16"/>
-      <c r="R50" s="30" t="s">
-        <v>16</v>
+      <c r="R50" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S50" s="16"/>
-      <c r="T50" s="27" t="s">
-        <v>88</v>
+      <c r="T50" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U50" s="16"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="28"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="29"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
@@ -3567,45 +3582,45 @@
     </row>
     <row r="51" ht="33.0" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="22">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="24"/>
+      <c r="B51" s="24">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="23"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
+      <c r="F51" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
       <c r="K51" s="16"/>
-      <c r="L51" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="M51" s="30" t="b">
+      <c r="L51" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="M51" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N51" s="24"/>
+      <c r="N51" s="23"/>
       <c r="O51" s="16"/>
-      <c r="P51" s="30" t="b">
+      <c r="P51" s="31" t="b">
         <v>1</v>
       </c>
       <c r="Q51" s="16"/>
-      <c r="R51" s="30" t="s">
-        <v>16</v>
+      <c r="R51" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S51" s="16"/>
-      <c r="T51" s="27" t="s">
-        <v>88</v>
+      <c r="T51" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U51" s="16"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="28"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="29"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
@@ -3613,45 +3628,45 @@
     </row>
     <row r="52" ht="33.0" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="22">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="24"/>
+      <c r="B52" s="24">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="23"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
+      <c r="F52" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
       <c r="K52" s="16"/>
-      <c r="L52" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="M52" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N52" s="24"/>
+      <c r="L52" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="N52" s="23"/>
       <c r="O52" s="16"/>
-      <c r="P52" s="30" t="b">
-        <v>1</v>
+      <c r="P52" s="31" t="s">
+        <v>141</v>
       </c>
       <c r="Q52" s="16"/>
-      <c r="R52" s="30" t="s">
-        <v>16</v>
+      <c r="R52" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S52" s="16"/>
-      <c r="T52" s="27" t="s">
-        <v>146</v>
+      <c r="T52" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U52" s="16"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="28"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="29"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
@@ -3659,45 +3674,45 @@
     </row>
     <row r="53" ht="33.0" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="22">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="24"/>
+      <c r="B53" s="24">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="23"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
+      <c r="F53" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
       <c r="K53" s="16"/>
-      <c r="L53" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="M53" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N53" s="24"/>
+      <c r="L53" s="36">
+        <v>-99.0</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" s="23"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="30" t="b">
-        <v>1</v>
+      <c r="P53" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="Q53" s="16"/>
-      <c r="R53" s="30" t="s">
-        <v>16</v>
+      <c r="R53" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S53" s="16"/>
-      <c r="T53" s="27" t="s">
-        <v>146</v>
+      <c r="T53" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U53" s="16"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="28"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="29"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
@@ -3705,47 +3720,45 @@
     </row>
     <row r="54" ht="33.0" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="22">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="24"/>
+      <c r="B54" s="24">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="23"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
+      <c r="F54" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
       <c r="K54" s="16"/>
-      <c r="L54" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="M54" s="30" t="b">
+      <c r="L54" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="M54" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N54" s="24"/>
+      <c r="N54" s="23"/>
       <c r="O54" s="16"/>
-      <c r="P54" s="30" t="b">
-        <v>0</v>
+      <c r="P54" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q54" s="16"/>
-      <c r="R54" s="30" t="s">
-        <v>38</v>
+      <c r="R54" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S54" s="16"/>
-      <c r="T54" s="27" t="s">
-        <v>146</v>
+      <c r="T54" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="U54" s="16"/>
-      <c r="V54" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W54" s="28"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="29"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
@@ -3753,45 +3766,45 @@
     </row>
     <row r="55" ht="33.0" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="22">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="24"/>
+      <c r="B55" s="24">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="23"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
+      <c r="F55" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
       <c r="K55" s="16"/>
-      <c r="L55" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="M55" s="30" t="b">
+      <c r="L55" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="M55" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N55" s="24"/>
+      <c r="N55" s="23"/>
       <c r="O55" s="16"/>
-      <c r="P55" s="30" t="b">
+      <c r="P55" s="31" t="b">
         <v>1</v>
       </c>
       <c r="Q55" s="16"/>
-      <c r="R55" s="30" t="s">
-        <v>16</v>
+      <c r="R55" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S55" s="16"/>
-      <c r="T55" s="27" t="s">
-        <v>146</v>
+      <c r="T55" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U55" s="16"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="28"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="29"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
@@ -3799,47 +3812,45 @@
     </row>
     <row r="56" ht="33.0" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="22">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D56" s="24"/>
+      <c r="B56" s="24">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="23"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
+      <c r="F56" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
       <c r="K56" s="16"/>
-      <c r="L56" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="M56" s="30" t="b">
+      <c r="L56" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="M56" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N56" s="24"/>
+      <c r="N56" s="23"/>
       <c r="O56" s="16"/>
-      <c r="P56" s="30" t="b">
-        <v>0</v>
+      <c r="P56" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q56" s="16"/>
-      <c r="R56" s="30" t="s">
-        <v>38</v>
+      <c r="R56" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S56" s="16"/>
-      <c r="T56" s="27" t="s">
-        <v>146</v>
+      <c r="T56" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U56" s="16"/>
-      <c r="V56" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W56" s="28"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="29"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
@@ -3847,45 +3858,47 @@
     </row>
     <row r="57" ht="33.0" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="22">
-        <f t="shared" si="1"/>
+      <c r="B57" s="24">
+        <f t="shared" ref="B57:B67" si="6">Row(B49)</f>
         <v>49</v>
       </c>
-      <c r="C57" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="24"/>
+      <c r="C57" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="23"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
+      <c r="F57" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
       <c r="K57" s="16"/>
-      <c r="L57" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="M57" s="30" t="b">
+      <c r="L57" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="M57" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N57" s="24"/>
+      <c r="N57" s="23"/>
       <c r="O57" s="16"/>
-      <c r="P57" s="30" t="b">
-        <v>1</v>
+      <c r="P57" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q57" s="16"/>
-      <c r="R57" s="30" t="s">
-        <v>16</v>
+      <c r="R57" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S57" s="16"/>
-      <c r="T57" s="27" t="s">
-        <v>146</v>
+      <c r="T57" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U57" s="16"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="28"/>
+      <c r="V57" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W57" s="29"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
@@ -3893,45 +3906,45 @@
     </row>
     <row r="58" ht="33.0" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="22">
-        <f t="shared" si="1"/>
+      <c r="B58" s="24">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="C58" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="24"/>
+      <c r="C58" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="23"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
+      <c r="F58" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
       <c r="K58" s="16"/>
-      <c r="L58" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="M58" s="30" t="b">
+      <c r="L58" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="M58" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N58" s="24"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="16"/>
-      <c r="P58" s="30" t="b">
+      <c r="P58" s="31" t="b">
         <v>1</v>
       </c>
       <c r="Q58" s="16"/>
-      <c r="R58" s="30" t="s">
-        <v>16</v>
+      <c r="R58" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S58" s="16"/>
-      <c r="T58" s="27" t="s">
-        <v>146</v>
+      <c r="T58" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U58" s="16"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="28"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="29"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
@@ -3939,47 +3952,47 @@
     </row>
     <row r="59" ht="33.0" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="22">
-        <f t="shared" si="1"/>
+      <c r="B59" s="24">
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="C59" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="24"/>
+      <c r="C59" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="23"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
+      <c r="F59" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
       <c r="K59" s="16"/>
-      <c r="L59" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="M59" s="30" t="b">
+      <c r="L59" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="M59" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N59" s="24"/>
+      <c r="N59" s="23"/>
       <c r="O59" s="16"/>
-      <c r="P59" s="30" t="b">
+      <c r="P59" s="31" t="b">
         <v>0</v>
       </c>
       <c r="Q59" s="16"/>
-      <c r="R59" s="30" t="s">
-        <v>38</v>
+      <c r="R59" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S59" s="16"/>
-      <c r="T59" s="27" t="s">
-        <v>146</v>
+      <c r="T59" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U59" s="16"/>
-      <c r="V59" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="W59" s="28"/>
+      <c r="V59" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W59" s="29"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
@@ -3987,47 +4000,45 @@
     </row>
     <row r="60" ht="33.0" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="22">
-        <f t="shared" si="1"/>
+      <c r="B60" s="24">
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="C60" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="24"/>
+      <c r="C60" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="23"/>
       <c r="E60" s="16"/>
-      <c r="F60" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
+      <c r="F60" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
       <c r="K60" s="16"/>
-      <c r="L60" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="M60" s="30" t="b">
+      <c r="L60" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="M60" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N60" s="24"/>
+      <c r="N60" s="23"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="30" t="b">
-        <v>0</v>
+      <c r="P60" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q60" s="16"/>
-      <c r="R60" s="30" t="s">
-        <v>38</v>
+      <c r="R60" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S60" s="16"/>
-      <c r="T60" s="27" t="s">
-        <v>146</v>
+      <c r="T60" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U60" s="16"/>
-      <c r="V60" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="W60" s="33"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="29"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
@@ -4035,45 +4046,45 @@
     </row>
     <row r="61" ht="33.0" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="22">
-        <f t="shared" si="1"/>
+      <c r="B61" s="24">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="C61" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="24"/>
+      <c r="C61" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="23"/>
       <c r="E61" s="16"/>
-      <c r="F61" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
+      <c r="F61" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
       <c r="K61" s="16"/>
-      <c r="L61" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M61" s="30" t="b">
+      <c r="L61" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="M61" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N61" s="24"/>
+      <c r="N61" s="23"/>
       <c r="O61" s="16"/>
-      <c r="P61" s="30" t="b">
+      <c r="P61" s="31" t="b">
         <v>1</v>
       </c>
       <c r="Q61" s="16"/>
-      <c r="R61" s="30" t="s">
-        <v>16</v>
+      <c r="R61" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S61" s="16"/>
-      <c r="T61" s="27" t="s">
-        <v>146</v>
+      <c r="T61" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U61" s="16"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="28"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="29"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
@@ -4081,45 +4092,47 @@
     </row>
     <row r="62" ht="33.0" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="22">
-        <f t="shared" si="1"/>
+      <c r="B62" s="24">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="C62" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="24"/>
+      <c r="C62" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="23"/>
       <c r="E62" s="16"/>
-      <c r="F62" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
+      <c r="F62" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
       <c r="K62" s="16"/>
-      <c r="L62" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M62" s="30" t="b">
+      <c r="L62" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="M62" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N62" s="24"/>
+      <c r="N62" s="23"/>
       <c r="O62" s="16"/>
-      <c r="P62" s="30" t="b">
+      <c r="P62" s="31" t="b">
         <v>0</v>
       </c>
       <c r="Q62" s="16"/>
-      <c r="R62" s="30" t="s">
-        <v>38</v>
+      <c r="R62" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S62" s="16"/>
-      <c r="T62" s="27" t="s">
-        <v>146</v>
+      <c r="T62" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U62" s="16"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
+      <c r="V62" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W62" s="29"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
@@ -4127,45 +4140,47 @@
     </row>
     <row r="63" ht="33.0" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="22">
-        <f t="shared" si="1"/>
+      <c r="B63" s="24">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="C63" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D63" s="24"/>
+      <c r="C63" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="23"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
+      <c r="F63" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
       <c r="K63" s="16"/>
-      <c r="L63" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M63" s="30" t="b">
+      <c r="L63" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="M63" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N63" s="24"/>
+      <c r="N63" s="23"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="30" t="b">
-        <v>1</v>
+      <c r="P63" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q63" s="16"/>
-      <c r="R63" s="30" t="s">
-        <v>16</v>
+      <c r="R63" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S63" s="16"/>
-      <c r="T63" s="27" t="s">
-        <v>177</v>
+      <c r="T63" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U63" s="16"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="28"/>
+      <c r="V63" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W63" s="34"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
@@ -4173,47 +4188,45 @@
     </row>
     <row r="64" ht="33.0" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="22">
-        <f t="shared" si="1"/>
+      <c r="B64" s="24">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="C64" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="24"/>
+      <c r="C64" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="23"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
+      <c r="F64" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
       <c r="K64" s="16"/>
-      <c r="L64" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M64" s="30" t="b">
+      <c r="L64" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M64" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N64" s="24"/>
+      <c r="N64" s="23"/>
       <c r="O64" s="16"/>
-      <c r="P64" s="30" t="b">
-        <v>0</v>
+      <c r="P64" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q64" s="16"/>
-      <c r="R64" s="30" t="s">
-        <v>38</v>
+      <c r="R64" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S64" s="16"/>
-      <c r="T64" s="27" t="s">
-        <v>177</v>
+      <c r="T64" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U64" s="16"/>
-      <c r="V64" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W64" s="28"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="29"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
@@ -4221,45 +4234,45 @@
     </row>
     <row r="65" ht="33.0" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="22">
-        <f t="shared" si="1"/>
+      <c r="B65" s="24">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="C65" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D65" s="24"/>
+      <c r="C65" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="23"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
+      <c r="F65" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="M65" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N65" s="24"/>
+      <c r="L65" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M65" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" s="23"/>
       <c r="O65" s="16"/>
-      <c r="P65" s="30" t="s">
-        <v>182</v>
+      <c r="P65" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q65" s="16"/>
-      <c r="R65" s="30" t="s">
-        <v>16</v>
+      <c r="R65" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S65" s="16"/>
-      <c r="T65" s="27" t="s">
-        <v>177</v>
+      <c r="T65" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="U65" s="16"/>
       <c r="V65" s="29"/>
-      <c r="W65" s="28"/>
+      <c r="W65" s="29"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
@@ -4267,45 +4280,45 @@
     </row>
     <row r="66" ht="33.0" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="22">
-        <f t="shared" si="1"/>
+      <c r="B66" s="24">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="C66" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" s="24"/>
+      <c r="C66" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="23"/>
       <c r="E66" s="16"/>
-      <c r="F66" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
+      <c r="F66" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
       <c r="K66" s="16"/>
-      <c r="L66" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N66" s="24"/>
+      <c r="L66" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M66" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" s="23"/>
       <c r="O66" s="16"/>
-      <c r="P66" s="30">
-        <v>0.0</v>
+      <c r="P66" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q66" s="16"/>
-      <c r="R66" s="30" t="s">
-        <v>16</v>
+      <c r="R66" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S66" s="16"/>
-      <c r="T66" s="27" t="s">
-        <v>177</v>
+      <c r="T66" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U66" s="16"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="28"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="29"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
@@ -4313,45 +4326,47 @@
     </row>
     <row r="67" ht="33.0" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="22">
-        <f t="shared" si="1"/>
+      <c r="B67" s="24">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="C67" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D67" s="24"/>
+      <c r="C67" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="23"/>
       <c r="E67" s="16"/>
-      <c r="F67" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
+      <c r="F67" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="16"/>
-      <c r="L67" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="M67" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="N67" s="24"/>
+      <c r="L67" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M67" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N67" s="23"/>
       <c r="O67" s="16"/>
-      <c r="P67" s="30" t="s">
-        <v>187</v>
+      <c r="P67" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q67" s="16"/>
-      <c r="R67" s="30" t="s">
-        <v>16</v>
+      <c r="R67" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S67" s="16"/>
-      <c r="T67" s="27" t="s">
-        <v>177</v>
+      <c r="T67" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U67" s="16"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="28"/>
+      <c r="V67" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W67" s="29"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
@@ -4359,47 +4374,30 @@
     </row>
     <row r="68" ht="33.0" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="22">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="M68" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="N68" s="24"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="S68" s="16"/>
-      <c r="T68" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="U68" s="16"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="33" t="s">
-        <v>39</v>
-      </c>
+      <c r="B68" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="16"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
@@ -4407,45 +4405,45 @@
     </row>
     <row r="69" ht="33.0" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="22">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="24"/>
+      <c r="B69" s="24">
+        <f t="shared" ref="B69:B76" si="7">Row(B60)</f>
+        <v>60</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="23"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
+      <c r="F69" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
       <c r="K69" s="16"/>
-      <c r="L69" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M69" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N69" s="24"/>
+      <c r="L69" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="N69" s="23"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="30" t="b">
-        <v>1</v>
+      <c r="P69" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="Q69" s="16"/>
-      <c r="R69" s="30" t="s">
-        <v>16</v>
+      <c r="R69" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S69" s="16"/>
-      <c r="T69" s="27" t="s">
-        <v>177</v>
+      <c r="T69" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U69" s="16"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="28"/>
+      <c r="V69" s="30"/>
+      <c r="W69" s="29"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
@@ -4453,47 +4451,45 @@
     </row>
     <row r="70" ht="33.0" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="22">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="24"/>
+      <c r="B70" s="24">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="23"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
+      <c r="F70" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
       <c r="K70" s="16"/>
-      <c r="L70" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="M70" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N70" s="24"/>
+      <c r="L70" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="N70" s="23"/>
       <c r="O70" s="16"/>
-      <c r="P70" s="30" t="b">
-        <v>0</v>
+      <c r="P70" s="31">
+        <v>0.0</v>
       </c>
       <c r="Q70" s="16"/>
-      <c r="R70" s="30" t="s">
-        <v>38</v>
+      <c r="R70" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S70" s="16"/>
-      <c r="T70" s="27" t="s">
-        <v>177</v>
+      <c r="T70" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U70" s="16"/>
-      <c r="V70" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W70" s="28"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="29"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
@@ -4501,45 +4497,45 @@
     </row>
     <row r="71" ht="33.0" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="22">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="24"/>
+      <c r="B71" s="24">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="23"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
+      <c r="F71" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
       <c r="K71" s="16"/>
-      <c r="L71" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="M71" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N71" s="24"/>
+      <c r="L71" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="M71" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="N71" s="23"/>
       <c r="O71" s="16"/>
-      <c r="P71" s="30" t="b">
-        <v>1</v>
+      <c r="P71" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="Q71" s="16"/>
-      <c r="R71" s="30" t="s">
-        <v>16</v>
+      <c r="R71" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S71" s="16"/>
-      <c r="T71" s="27" t="s">
-        <v>177</v>
+      <c r="T71" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U71" s="16"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="28"/>
+      <c r="V71" s="30"/>
+      <c r="W71" s="29"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
@@ -4547,45 +4543,47 @@
     </row>
     <row r="72" ht="33.0" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="22">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" s="24"/>
+      <c r="B72" s="24">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="23"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
+      <c r="F72" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
       <c r="K72" s="16"/>
-      <c r="L72" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="M72" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N72" s="24"/>
+      <c r="L72" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="M72" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="N72" s="23"/>
       <c r="O72" s="16"/>
-      <c r="P72" s="30" t="b">
-        <v>1</v>
+      <c r="P72" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="Q72" s="16"/>
-      <c r="R72" s="30" t="s">
-        <v>16</v>
+      <c r="R72" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S72" s="16"/>
-      <c r="T72" s="27" t="s">
-        <v>177</v>
+      <c r="T72" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U72" s="16"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
@@ -4593,45 +4591,45 @@
     </row>
     <row r="73" ht="33.0" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="22">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="24"/>
+      <c r="B73" s="24">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="23"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
+      <c r="F73" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
       <c r="K73" s="16"/>
-      <c r="L73" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="M73" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N73" s="24"/>
+      <c r="L73" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N73" s="23"/>
       <c r="O73" s="16"/>
-      <c r="P73" s="30" t="s">
-        <v>203</v>
+      <c r="P73" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q73" s="16"/>
-      <c r="R73" s="30" t="s">
-        <v>16</v>
+      <c r="R73" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S73" s="16"/>
-      <c r="T73" s="27" t="s">
-        <v>177</v>
+      <c r="T73" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U73" s="16"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
+      <c r="V73" s="30"/>
+      <c r="W73" s="29"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
@@ -4639,45 +4637,47 @@
     </row>
     <row r="74" ht="33.0" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="22">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="D74" s="24"/>
+      <c r="B74" s="24">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="23"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
+      <c r="F74" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
       <c r="K74" s="16"/>
-      <c r="L74" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="M74" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N74" s="24"/>
+      <c r="L74" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M74" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" s="23"/>
       <c r="O74" s="16"/>
-      <c r="P74" s="30" t="s">
-        <v>206</v>
+      <c r="P74" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="Q74" s="16"/>
-      <c r="R74" s="30" t="s">
-        <v>16</v>
+      <c r="R74" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="S74" s="16"/>
-      <c r="T74" s="27" t="s">
-        <v>177</v>
+      <c r="T74" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U74" s="16"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
+      <c r="V74" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W74" s="29"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
@@ -4685,45 +4685,45 @@
     </row>
     <row r="75" ht="33.0" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="22">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="24"/>
+      <c r="B75" s="24">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="23"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
+      <c r="F75" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
       <c r="K75" s="16"/>
-      <c r="L75" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="M75" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="N75" s="24"/>
+      <c r="L75" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M75" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N75" s="23"/>
       <c r="O75" s="16"/>
-      <c r="P75" s="30" t="s">
-        <v>210</v>
+      <c r="P75" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q75" s="16"/>
-      <c r="R75" s="30" t="s">
-        <v>16</v>
+      <c r="R75" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S75" s="16"/>
-      <c r="T75" s="27" t="s">
-        <v>177</v>
+      <c r="T75" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U75" s="16"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
@@ -4731,45 +4731,45 @@
     </row>
     <row r="76" ht="33.0" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="22">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="24"/>
+      <c r="B76" s="24">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="23"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
+      <c r="F76" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
       <c r="K76" s="16"/>
-      <c r="L76" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="M76" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="N76" s="24"/>
+      <c r="L76" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M76" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" s="23"/>
       <c r="O76" s="16"/>
-      <c r="P76" s="30" t="s">
-        <v>213</v>
+      <c r="P76" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q76" s="16"/>
-      <c r="R76" s="30" t="s">
-        <v>16</v>
+      <c r="R76" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S76" s="16"/>
-      <c r="T76" s="27" t="s">
-        <v>177</v>
+      <c r="T76" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U76" s="16"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
@@ -4777,45 +4777,30 @@
     </row>
     <row r="77" ht="33.0" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="22">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="26">
-        <v>-99.0</v>
-      </c>
-      <c r="M77" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="N77" s="24"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="S77" s="16"/>
-      <c r="T77" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="U77" s="16"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
+      <c r="B77" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="16"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
@@ -4823,45 +4808,45 @@
     </row>
     <row r="78" ht="33.0" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="22">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="D78" s="24"/>
+      <c r="B78" s="24">
+        <f t="shared" ref="B78:B85" si="8">Row(B69)</f>
+        <v>69</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="23"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
+      <c r="F78" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
       <c r="K78" s="16"/>
-      <c r="L78" s="26">
-        <v>-99.0</v>
-      </c>
-      <c r="M78" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="N78" s="24"/>
+      <c r="L78" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="N78" s="23"/>
       <c r="O78" s="16"/>
-      <c r="P78" s="30" t="s">
-        <v>31</v>
+      <c r="P78" s="31" t="s">
+        <v>208</v>
       </c>
       <c r="Q78" s="16"/>
-      <c r="R78" s="30" t="s">
-        <v>16</v>
+      <c r="R78" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S78" s="16"/>
-      <c r="T78" s="27" t="s">
-        <v>177</v>
+      <c r="T78" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U78" s="16"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
@@ -4869,45 +4854,45 @@
     </row>
     <row r="79" ht="33.0" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="22">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" s="24"/>
+      <c r="B79" s="24">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="23"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
+      <c r="F79" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
       <c r="K79" s="16"/>
-      <c r="L79" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="M79" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N79" s="24"/>
+      <c r="L79" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="N79" s="23"/>
       <c r="O79" s="16"/>
-      <c r="P79" s="30" t="b">
-        <v>1</v>
+      <c r="P79" s="31" t="s">
+        <v>211</v>
       </c>
       <c r="Q79" s="16"/>
-      <c r="R79" s="30" t="s">
-        <v>16</v>
+      <c r="R79" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S79" s="16"/>
-      <c r="T79" s="27" t="s">
-        <v>177</v>
+      <c r="T79" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U79" s="16"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
@@ -4915,45 +4900,45 @@
     </row>
     <row r="80" ht="33.0" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="22">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" s="24"/>
+      <c r="B80" s="24">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="23"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
+      <c r="F80" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
       <c r="K80" s="16"/>
-      <c r="L80" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="M80" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N80" s="24"/>
+      <c r="L80" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M80" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="N80" s="23"/>
       <c r="O80" s="16"/>
-      <c r="P80" s="30" t="b">
-        <v>1</v>
+      <c r="P80" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="Q80" s="16"/>
-      <c r="R80" s="30" t="s">
-        <v>16</v>
+      <c r="R80" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S80" s="16"/>
-      <c r="T80" s="27" t="s">
-        <v>177</v>
+      <c r="T80" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U80" s="16"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
@@ -4961,45 +4946,45 @@
     </row>
     <row r="81" ht="33.0" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="22">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="D81" s="24"/>
+      <c r="B81" s="24">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="23"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
+      <c r="F81" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
       <c r="K81" s="16"/>
-      <c r="L81" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="M81" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N81" s="24"/>
+      <c r="L81" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M81" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="N81" s="23"/>
       <c r="O81" s="16"/>
-      <c r="P81" s="30" t="b">
-        <v>1</v>
+      <c r="P81" s="31" t="s">
+        <v>218</v>
       </c>
       <c r="Q81" s="16"/>
-      <c r="R81" s="30" t="s">
-        <v>16</v>
+      <c r="R81" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S81" s="16"/>
-      <c r="T81" s="27" t="s">
-        <v>177</v>
+      <c r="T81" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U81" s="16"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
@@ -5007,45 +4992,45 @@
     </row>
     <row r="82" ht="33.0" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="22">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="D82" s="24"/>
+      <c r="B82" s="24">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="23"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
+      <c r="F82" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
       <c r="K82" s="16"/>
-      <c r="L82" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="M82" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N82" s="24"/>
+      <c r="L82" s="27">
+        <v>-99.0</v>
+      </c>
+      <c r="M82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="23"/>
       <c r="O82" s="16"/>
-      <c r="P82" s="30" t="b">
-        <v>1</v>
+      <c r="P82" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="Q82" s="16"/>
-      <c r="R82" s="30" t="s">
-        <v>16</v>
+      <c r="R82" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S82" s="16"/>
-      <c r="T82" s="27" t="s">
-        <v>177</v>
+      <c r="T82" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U82" s="16"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
@@ -5053,45 +5038,45 @@
     </row>
     <row r="83" ht="33.0" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="22">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="D83" s="24"/>
+      <c r="B83" s="24">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" s="23"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
+      <c r="F83" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
       <c r="K83" s="16"/>
-      <c r="L83" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="M83" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="N83" s="24"/>
+      <c r="L83" s="27">
+        <v>-99.0</v>
+      </c>
+      <c r="M83" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N83" s="23"/>
       <c r="O83" s="16"/>
-      <c r="P83" s="30" t="s">
-        <v>231</v>
+      <c r="P83" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="Q83" s="16"/>
-      <c r="R83" s="30" t="s">
-        <v>16</v>
+      <c r="R83" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S83" s="16"/>
-      <c r="T83" s="27" t="s">
-        <v>177</v>
+      <c r="T83" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U83" s="16"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="28"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
@@ -5099,45 +5084,45 @@
     </row>
     <row r="84" ht="33.0" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="22">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="C84" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="D84" s="24"/>
+      <c r="B84" s="24">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="23"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
+      <c r="F84" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
       <c r="K84" s="16"/>
-      <c r="L84" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="M84" s="30" t="b">
+      <c r="L84" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="M84" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N84" s="24"/>
+      <c r="N84" s="23"/>
       <c r="O84" s="16"/>
-      <c r="P84" s="30" t="b">
+      <c r="P84" s="31" t="b">
         <v>1</v>
       </c>
       <c r="Q84" s="16"/>
-      <c r="R84" s="30" t="s">
-        <v>16</v>
+      <c r="R84" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S84" s="16"/>
-      <c r="T84" s="27" t="s">
-        <v>177</v>
+      <c r="T84" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U84" s="16"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="28"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
@@ -5145,45 +5130,45 @@
     </row>
     <row r="85" ht="33.0" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="22">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D85" s="24"/>
+      <c r="B85" s="24">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D85" s="23"/>
       <c r="E85" s="16"/>
-      <c r="F85" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
+      <c r="F85" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
       <c r="K85" s="16"/>
-      <c r="L85" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="M85" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="N85" s="24"/>
+      <c r="L85" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M85" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" s="23"/>
       <c r="O85" s="16"/>
-      <c r="P85" s="30" t="s">
-        <v>238</v>
+      <c r="P85" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q85" s="16"/>
-      <c r="R85" s="30" t="s">
-        <v>16</v>
+      <c r="R85" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S85" s="16"/>
-      <c r="T85" s="27" t="s">
-        <v>177</v>
+      <c r="T85" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U85" s="16"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="28"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
@@ -5191,45 +5176,45 @@
     </row>
     <row r="86" ht="33.0" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="22">
-        <f t="shared" si="1"/>
+      <c r="B86" s="24">
+        <f t="shared" ref="B86:B87" si="9">Row(B78)</f>
         <v>78</v>
       </c>
-      <c r="C86" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="D86" s="24"/>
+      <c r="C86" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" s="23"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
+      <c r="F86" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
       <c r="K86" s="16"/>
-      <c r="L86" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="M86" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="N86" s="24"/>
+      <c r="L86" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M86" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N86" s="23"/>
       <c r="O86" s="16"/>
-      <c r="P86" s="30" t="s">
-        <v>238</v>
+      <c r="P86" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q86" s="16"/>
-      <c r="R86" s="30" t="s">
-        <v>16</v>
+      <c r="R86" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S86" s="16"/>
-      <c r="T86" s="27" t="s">
-        <v>177</v>
+      <c r="T86" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U86" s="16"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="28"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
@@ -5237,137 +5222,122 @@
     </row>
     <row r="87" ht="33.0" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="22">
-        <f t="shared" si="1"/>
+      <c r="B87" s="24">
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="D87" s="24"/>
+      <c r="C87" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="23"/>
       <c r="E87" s="16"/>
-      <c r="F87" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
+      <c r="F87" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
       <c r="K87" s="16"/>
-      <c r="L87" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="M87" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="N87" s="24"/>
+      <c r="L87" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M87" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N87" s="23"/>
       <c r="O87" s="16"/>
-      <c r="P87" s="30" t="s">
-        <v>244</v>
+      <c r="P87" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="Q87" s="16"/>
-      <c r="R87" s="30" t="s">
-        <v>16</v>
+      <c r="R87" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S87" s="16"/>
-      <c r="T87" s="27" t="s">
-        <v>177</v>
+      <c r="T87" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U87" s="16"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="28"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
     <row r="88" ht="33.0" customHeight="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="22">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="M88" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N88" s="24"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="S88" s="16"/>
-      <c r="T88" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="U88" s="16"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="23"/>
+      <c r="S88" s="23"/>
+      <c r="T88" s="23"/>
+      <c r="U88" s="23"/>
+      <c r="V88" s="23"/>
+      <c r="W88" s="16"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="37"/>
+      <c r="AA88" s="37"/>
     </row>
     <row r="89" ht="33.0" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="22">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D89" s="24"/>
+      <c r="B89" s="24">
+        <f t="shared" ref="B89:B93" si="10">Row(B80)</f>
+        <v>80</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D89" s="23"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
+      <c r="F89" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
       <c r="K89" s="16"/>
-      <c r="L89" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="M89" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N89" s="24"/>
+      <c r="L89" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="N89" s="23"/>
       <c r="O89" s="16"/>
-      <c r="P89" s="30" t="b">
-        <v>1</v>
+      <c r="P89" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="Q89" s="16"/>
-      <c r="R89" s="30" t="s">
-        <v>16</v>
+      <c r="R89" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="S89" s="16"/>
-      <c r="T89" s="27" t="s">
-        <v>251</v>
+      <c r="T89" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="U89" s="16"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
@@ -5375,16 +5345,45 @@
     </row>
     <row r="90" ht="33.0" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="F90" s="2"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="T90" s="4"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
+      <c r="B90" s="24">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M90" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N90" s="23"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S90" s="16"/>
+      <c r="T90" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="U90" s="16"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
@@ -5392,16 +5391,45 @@
     </row>
     <row r="91" ht="33.0" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="F91" s="2"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="T91" s="4"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
+      <c r="B91" s="24">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M91" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="N91" s="23"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S91" s="16"/>
+      <c r="T91" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="U91" s="16"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
@@ -5409,16 +5437,45 @@
     </row>
     <row r="92" ht="33.0" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="F92" s="2"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="T92" s="4"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
+      <c r="B92" s="24">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M92" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="N92" s="23"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S92" s="16"/>
+      <c r="T92" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="U92" s="16"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
@@ -5426,16 +5483,45 @@
     </row>
     <row r="93" ht="33.0" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="F93" s="2"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="T93" s="4"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
+      <c r="B93" s="24">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" s="23"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M93" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N93" s="23"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S93" s="16"/>
+      <c r="T93" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="U93" s="16"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
@@ -5443,16 +5529,30 @@
     </row>
     <row r="94" ht="33.0" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="F94" s="2"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="T94" s="4"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
+      <c r="B94" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="23"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="23"/>
+      <c r="S94" s="23"/>
+      <c r="T94" s="23"/>
+      <c r="U94" s="23"/>
+      <c r="V94" s="23"/>
+      <c r="W94" s="16"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
@@ -5460,16 +5560,45 @@
     </row>
     <row r="95" ht="33.0" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="F95" s="2"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="T95" s="4"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
+      <c r="B95" s="24">
+        <f t="shared" ref="B95:B96" si="11">Row(B85)</f>
+        <v>85</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M95" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N95" s="23"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S95" s="16"/>
+      <c r="T95" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="U95" s="16"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
@@ -5477,16 +5606,45 @@
     </row>
     <row r="96" ht="33.0" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="F96" s="2"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="T96" s="4"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
+      <c r="B96" s="24">
+        <f t="shared" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="23"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M96" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" s="23"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S96" s="16"/>
+      <c r="T96" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="U96" s="16"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="29"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
@@ -6057,24 +6215,12 @@
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
       <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
       <c r="L130" s="3"/>
       <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
       <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
-      <c r="S130" s="1"/>
       <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
       <c r="V130" s="5"/>
       <c r="W130" s="5"/>
       <c r="X130" s="1"/>
@@ -6086,24 +6232,12 @@
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
       <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
       <c r="L131" s="3"/>
       <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
       <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
-      <c r="S131" s="1"/>
       <c r="T131" s="4"/>
-      <c r="U131" s="4"/>
       <c r="V131" s="5"/>
       <c r="W131" s="5"/>
       <c r="X131" s="1"/>
@@ -6115,24 +6249,12 @@
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
       <c r="L132" s="3"/>
       <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
       <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
       <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
       <c r="V132" s="5"/>
       <c r="W132" s="5"/>
       <c r="X132" s="1"/>
@@ -6144,24 +6266,12 @@
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
       <c r="L133" s="3"/>
       <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
       <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
       <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
       <c r="V133" s="5"/>
       <c r="W133" s="5"/>
       <c r="X133" s="1"/>
@@ -6173,24 +6283,12 @@
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
       <c r="L134" s="3"/>
       <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
       <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
-      <c r="S134" s="1"/>
       <c r="T134" s="4"/>
-      <c r="U134" s="4"/>
       <c r="V134" s="5"/>
       <c r="W134" s="5"/>
       <c r="X134" s="1"/>
@@ -6202,24 +6300,12 @@
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
       <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
       <c r="L135" s="3"/>
       <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
       <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
       <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
       <c r="X135" s="1"/>
@@ -6231,24 +6317,12 @@
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
       <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
       <c r="L136" s="3"/>
       <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
       <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
-      <c r="S136" s="1"/>
       <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
       <c r="V136" s="5"/>
       <c r="W136" s="5"/>
       <c r="X136" s="1"/>
@@ -30877,44 +30951,246 @@
       <c r="Z985" s="1"/>
       <c r="AA985" s="1"/>
     </row>
+    <row r="986" ht="33.0" customHeight="1">
+      <c r="A986" s="1"/>
+      <c r="B986" s="1"/>
+      <c r="C986" s="1"/>
+      <c r="D986" s="1"/>
+      <c r="E986" s="1"/>
+      <c r="F986" s="2"/>
+      <c r="G986" s="2"/>
+      <c r="H986" s="2"/>
+      <c r="I986" s="2"/>
+      <c r="J986" s="2"/>
+      <c r="K986" s="2"/>
+      <c r="L986" s="3"/>
+      <c r="M986" s="1"/>
+      <c r="N986" s="1"/>
+      <c r="O986" s="1"/>
+      <c r="P986" s="1"/>
+      <c r="Q986" s="1"/>
+      <c r="R986" s="1"/>
+      <c r="S986" s="1"/>
+      <c r="T986" s="4"/>
+      <c r="U986" s="4"/>
+      <c r="V986" s="5"/>
+      <c r="W986" s="5"/>
+      <c r="X986" s="1"/>
+      <c r="Y986" s="1"/>
+      <c r="Z986" s="1"/>
+      <c r="AA986" s="1"/>
+    </row>
+    <row r="987" ht="33.0" customHeight="1">
+      <c r="A987" s="1"/>
+      <c r="B987" s="1"/>
+      <c r="C987" s="1"/>
+      <c r="D987" s="1"/>
+      <c r="E987" s="1"/>
+      <c r="F987" s="2"/>
+      <c r="G987" s="2"/>
+      <c r="H987" s="2"/>
+      <c r="I987" s="2"/>
+      <c r="J987" s="2"/>
+      <c r="K987" s="2"/>
+      <c r="L987" s="3"/>
+      <c r="M987" s="1"/>
+      <c r="N987" s="1"/>
+      <c r="O987" s="1"/>
+      <c r="P987" s="1"/>
+      <c r="Q987" s="1"/>
+      <c r="R987" s="1"/>
+      <c r="S987" s="1"/>
+      <c r="T987" s="4"/>
+      <c r="U987" s="4"/>
+      <c r="V987" s="5"/>
+      <c r="W987" s="5"/>
+      <c r="X987" s="1"/>
+      <c r="Y987" s="1"/>
+      <c r="Z987" s="1"/>
+      <c r="AA987" s="1"/>
+    </row>
+    <row r="988" ht="33.0" customHeight="1">
+      <c r="A988" s="1"/>
+      <c r="B988" s="1"/>
+      <c r="C988" s="1"/>
+      <c r="D988" s="1"/>
+      <c r="E988" s="1"/>
+      <c r="F988" s="2"/>
+      <c r="G988" s="2"/>
+      <c r="H988" s="2"/>
+      <c r="I988" s="2"/>
+      <c r="J988" s="2"/>
+      <c r="K988" s="2"/>
+      <c r="L988" s="3"/>
+      <c r="M988" s="1"/>
+      <c r="N988" s="1"/>
+      <c r="O988" s="1"/>
+      <c r="P988" s="1"/>
+      <c r="Q988" s="1"/>
+      <c r="R988" s="1"/>
+      <c r="S988" s="1"/>
+      <c r="T988" s="4"/>
+      <c r="U988" s="4"/>
+      <c r="V988" s="5"/>
+      <c r="W988" s="5"/>
+      <c r="X988" s="1"/>
+      <c r="Y988" s="1"/>
+      <c r="Z988" s="1"/>
+      <c r="AA988" s="1"/>
+    </row>
+    <row r="989" ht="33.0" customHeight="1">
+      <c r="A989" s="1"/>
+      <c r="B989" s="1"/>
+      <c r="C989" s="1"/>
+      <c r="D989" s="1"/>
+      <c r="E989" s="1"/>
+      <c r="F989" s="2"/>
+      <c r="G989" s="2"/>
+      <c r="H989" s="2"/>
+      <c r="I989" s="2"/>
+      <c r="J989" s="2"/>
+      <c r="K989" s="2"/>
+      <c r="L989" s="3"/>
+      <c r="M989" s="1"/>
+      <c r="N989" s="1"/>
+      <c r="O989" s="1"/>
+      <c r="P989" s="1"/>
+      <c r="Q989" s="1"/>
+      <c r="R989" s="1"/>
+      <c r="S989" s="1"/>
+      <c r="T989" s="4"/>
+      <c r="U989" s="4"/>
+      <c r="V989" s="5"/>
+      <c r="W989" s="5"/>
+      <c r="X989" s="1"/>
+      <c r="Y989" s="1"/>
+      <c r="Z989" s="1"/>
+      <c r="AA989" s="1"/>
+    </row>
+    <row r="990" ht="33.0" customHeight="1">
+      <c r="A990" s="1"/>
+      <c r="B990" s="1"/>
+      <c r="C990" s="1"/>
+      <c r="D990" s="1"/>
+      <c r="E990" s="1"/>
+      <c r="F990" s="2"/>
+      <c r="G990" s="2"/>
+      <c r="H990" s="2"/>
+      <c r="I990" s="2"/>
+      <c r="J990" s="2"/>
+      <c r="K990" s="2"/>
+      <c r="L990" s="3"/>
+      <c r="M990" s="1"/>
+      <c r="N990" s="1"/>
+      <c r="O990" s="1"/>
+      <c r="P990" s="1"/>
+      <c r="Q990" s="1"/>
+      <c r="R990" s="1"/>
+      <c r="S990" s="1"/>
+      <c r="T990" s="4"/>
+      <c r="U990" s="4"/>
+      <c r="V990" s="5"/>
+      <c r="W990" s="5"/>
+      <c r="X990" s="1"/>
+      <c r="Y990" s="1"/>
+      <c r="Z990" s="1"/>
+      <c r="AA990" s="1"/>
+    </row>
+    <row r="991" ht="33.0" customHeight="1">
+      <c r="A991" s="1"/>
+      <c r="B991" s="1"/>
+      <c r="C991" s="1"/>
+      <c r="D991" s="1"/>
+      <c r="E991" s="1"/>
+      <c r="F991" s="2"/>
+      <c r="G991" s="2"/>
+      <c r="H991" s="2"/>
+      <c r="I991" s="2"/>
+      <c r="J991" s="2"/>
+      <c r="K991" s="2"/>
+      <c r="L991" s="3"/>
+      <c r="M991" s="1"/>
+      <c r="N991" s="1"/>
+      <c r="O991" s="1"/>
+      <c r="P991" s="1"/>
+      <c r="Q991" s="1"/>
+      <c r="R991" s="1"/>
+      <c r="S991" s="1"/>
+      <c r="T991" s="4"/>
+      <c r="U991" s="4"/>
+      <c r="V991" s="5"/>
+      <c r="W991" s="5"/>
+      <c r="X991" s="1"/>
+      <c r="Y991" s="1"/>
+      <c r="Z991" s="1"/>
+      <c r="AA991" s="1"/>
+    </row>
+    <row r="992" ht="33.0" customHeight="1">
+      <c r="A992" s="1"/>
+      <c r="B992" s="1"/>
+      <c r="C992" s="1"/>
+      <c r="D992" s="1"/>
+      <c r="E992" s="1"/>
+      <c r="F992" s="2"/>
+      <c r="G992" s="2"/>
+      <c r="H992" s="2"/>
+      <c r="I992" s="2"/>
+      <c r="J992" s="2"/>
+      <c r="K992" s="2"/>
+      <c r="L992" s="3"/>
+      <c r="M992" s="1"/>
+      <c r="N992" s="1"/>
+      <c r="O992" s="1"/>
+      <c r="P992" s="1"/>
+      <c r="Q992" s="1"/>
+      <c r="R992" s="1"/>
+      <c r="S992" s="1"/>
+      <c r="T992" s="4"/>
+      <c r="U992" s="4"/>
+      <c r="V992" s="5"/>
+      <c r="W992" s="5"/>
+      <c r="X992" s="1"/>
+      <c r="Y992" s="1"/>
+      <c r="Z992" s="1"/>
+      <c r="AA992" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="737">
-    <mergeCell ref="C10:E10"/>
+  <mergeCells count="744">
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:K11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:K14"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:K17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:K18"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F19:K19"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="F20:K20"/>
     <mergeCell ref="F21:K21"/>
     <mergeCell ref="F22:K22"/>
     <mergeCell ref="F23:K23"/>
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="F25:K25"/>
-    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F26:K26"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="F27:K27"/>
     <mergeCell ref="F28:K28"/>
     <mergeCell ref="F29:K29"/>
@@ -30925,23 +31201,17 @@
     <mergeCell ref="F34:K34"/>
     <mergeCell ref="F35:K35"/>
     <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F37:K37"/>
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="F39:K39"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="F41:K41"/>
     <mergeCell ref="C86:E86"/>
     <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="C92:E92"/>
     <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C89:E89"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
     <mergeCell ref="C97:E97"/>
@@ -30963,6 +31233,20 @@
     <mergeCell ref="C113:E113"/>
     <mergeCell ref="C114:E114"/>
     <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C136:E136"/>
     <mergeCell ref="C123:E123"/>
     <mergeCell ref="C124:E124"/>
     <mergeCell ref="C125:E125"/>
@@ -30970,19 +31254,10 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C128:E128"/>
     <mergeCell ref="C129:E129"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C40:E40"/>
@@ -30993,7 +31268,6 @@
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
@@ -31013,7 +31287,6 @@
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C66:E66"/>
     <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
     <mergeCell ref="C69:E69"/>
     <mergeCell ref="C70:E70"/>
     <mergeCell ref="C71:E71"/>
@@ -31022,17 +31295,14 @@
     <mergeCell ref="C74:E74"/>
     <mergeCell ref="C75:E75"/>
     <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
     <mergeCell ref="C78:E78"/>
     <mergeCell ref="C79:E79"/>
     <mergeCell ref="C80:E80"/>
-    <mergeCell ref="F90:K90"/>
-    <mergeCell ref="F91:K91"/>
-    <mergeCell ref="F92:K92"/>
-    <mergeCell ref="F93:K93"/>
-    <mergeCell ref="F94:K94"/>
-    <mergeCell ref="F95:K95"/>
-    <mergeCell ref="F89:K89"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
     <mergeCell ref="F96:K96"/>
     <mergeCell ref="F97:K97"/>
     <mergeCell ref="F98:K98"/>
@@ -31054,12 +31324,6 @@
     <mergeCell ref="F114:K114"/>
     <mergeCell ref="F115:K115"/>
     <mergeCell ref="F116:K116"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="F125:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="F127:K127"/>
-    <mergeCell ref="F128:K128"/>
-    <mergeCell ref="F129:K129"/>
     <mergeCell ref="F117:K117"/>
     <mergeCell ref="F118:K118"/>
     <mergeCell ref="F119:K119"/>
@@ -31067,15 +31331,25 @@
     <mergeCell ref="F121:K121"/>
     <mergeCell ref="F122:K122"/>
     <mergeCell ref="F123:K123"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F131:K131"/>
+    <mergeCell ref="F132:K132"/>
+    <mergeCell ref="F133:K133"/>
+    <mergeCell ref="F134:K134"/>
+    <mergeCell ref="F135:K135"/>
+    <mergeCell ref="F136:K136"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="F125:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="F127:K127"/>
+    <mergeCell ref="F128:K128"/>
+    <mergeCell ref="F129:K129"/>
+    <mergeCell ref="F130:K130"/>
     <mergeCell ref="F42:K42"/>
     <mergeCell ref="F43:K43"/>
     <mergeCell ref="F44:K44"/>
     <mergeCell ref="F45:K45"/>
     <mergeCell ref="F46:K46"/>
     <mergeCell ref="F47:K47"/>
-    <mergeCell ref="F48:K48"/>
     <mergeCell ref="F49:K49"/>
     <mergeCell ref="F50:K50"/>
     <mergeCell ref="F51:K51"/>
@@ -31095,7 +31369,6 @@
     <mergeCell ref="F65:K65"/>
     <mergeCell ref="F66:K66"/>
     <mergeCell ref="F67:K67"/>
-    <mergeCell ref="F68:K68"/>
     <mergeCell ref="F69:K69"/>
     <mergeCell ref="F70:K70"/>
     <mergeCell ref="F71:K71"/>
@@ -31104,7 +31377,6 @@
     <mergeCell ref="F74:K74"/>
     <mergeCell ref="F75:K75"/>
     <mergeCell ref="F76:K76"/>
-    <mergeCell ref="F77:K77"/>
     <mergeCell ref="F78:K78"/>
     <mergeCell ref="F79:K79"/>
     <mergeCell ref="F80:K80"/>
@@ -31115,7 +31387,12 @@
     <mergeCell ref="F85:K85"/>
     <mergeCell ref="F86:K86"/>
     <mergeCell ref="F87:K87"/>
-    <mergeCell ref="F88:K88"/>
+    <mergeCell ref="F89:K89"/>
+    <mergeCell ref="F90:K90"/>
+    <mergeCell ref="F91:K91"/>
+    <mergeCell ref="F92:K92"/>
+    <mergeCell ref="F93:K93"/>
+    <mergeCell ref="F95:K95"/>
     <mergeCell ref="P7:Q8"/>
     <mergeCell ref="R7:S8"/>
     <mergeCell ref="T7:U8"/>
@@ -31127,260 +31404,253 @@
     <mergeCell ref="F7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:O8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:K10"/>
-    <mergeCell ref="T10:U10"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="B9:W9"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="T14:U14"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:Q28"/>
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="T28:U28"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:Q28"/>
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="M30:O30"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="T30:U30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="T31:U31"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="M32:O32"/>
     <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="T32:U32"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
     <mergeCell ref="R33:S33"/>
     <mergeCell ref="T33:U33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
     <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="B37:W37"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:Q36"/>
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="T36:U36"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="M38:O38"/>
     <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="M38:O38"/>
     <mergeCell ref="M39:O39"/>
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="R39:S39"/>
     <mergeCell ref="T39:U39"/>
-    <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
     <mergeCell ref="R40:S40"/>
     <mergeCell ref="T40:U40"/>
+    <mergeCell ref="M40:O40"/>
     <mergeCell ref="M41:O41"/>
     <mergeCell ref="P41:Q41"/>
     <mergeCell ref="R41:S41"/>
     <mergeCell ref="T41:U41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="B48:W48"/>
+    <mergeCell ref="R42:S42"/>
     <mergeCell ref="T42:U42"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="M42:O42"/>
     <mergeCell ref="M43:O43"/>
     <mergeCell ref="P43:Q43"/>
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
     <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:Q44"/>
     <mergeCell ref="M45:O45"/>
     <mergeCell ref="P45:Q45"/>
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="T45:U45"/>
+    <mergeCell ref="M46:O46"/>
     <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="M46:O46"/>
     <mergeCell ref="M47:O47"/>
     <mergeCell ref="P47:Q47"/>
     <mergeCell ref="R47:S47"/>
     <mergeCell ref="T47:U47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="M49:O49"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="R49:S49"/>
     <mergeCell ref="T49:U49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:S50"/>
     <mergeCell ref="T50:U50"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="M50:O50"/>
     <mergeCell ref="M51:O51"/>
     <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
     <mergeCell ref="R51:S51"/>
     <mergeCell ref="T51:U51"/>
     <mergeCell ref="M52:O52"/>
     <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:U55"/>
     <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="M54:O54"/>
     <mergeCell ref="P54:Q54"/>
     <mergeCell ref="R54:S54"/>
     <mergeCell ref="T54:U54"/>
-    <mergeCell ref="M54:O54"/>
     <mergeCell ref="M55:O55"/>
     <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="R58:S58"/>
     <mergeCell ref="R56:S56"/>
     <mergeCell ref="T56:U56"/>
-    <mergeCell ref="M57:O57"/>
     <mergeCell ref="P57:Q57"/>
     <mergeCell ref="R57:S57"/>
     <mergeCell ref="T57:U57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:S58"/>
     <mergeCell ref="T58:U58"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="M58:O58"/>
     <mergeCell ref="M59:O59"/>
     <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
     <mergeCell ref="R59:S59"/>
     <mergeCell ref="T59:U59"/>
     <mergeCell ref="M60:O60"/>
     <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="B68:W68"/>
+    <mergeCell ref="B77:W77"/>
+    <mergeCell ref="B88:W88"/>
+    <mergeCell ref="B94:W94"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="P63:Q63"/>
     <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="T26:U26"/>
-    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
     <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
-    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="T22:U22"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="T85:U85"/>
     <mergeCell ref="M64:O64"/>
     <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
     <mergeCell ref="R64:S64"/>
     <mergeCell ref="T64:U64"/>
-    <mergeCell ref="M65:O65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="R65:S65"/>
     <mergeCell ref="T65:U65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
     <mergeCell ref="T66:U66"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="M66:O66"/>
     <mergeCell ref="M67:O67"/>
     <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
     <mergeCell ref="R67:S67"/>
     <mergeCell ref="T67:U67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="P68:Q68"/>
     <mergeCell ref="M69:O69"/>
     <mergeCell ref="P69:Q69"/>
     <mergeCell ref="R69:S69"/>
     <mergeCell ref="T69:U69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
     <mergeCell ref="T70:U70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="T72:U72"/>
     <mergeCell ref="M70:O70"/>
     <mergeCell ref="M71:O71"/>
     <mergeCell ref="P71:Q71"/>
@@ -31388,17 +31658,13 @@
     <mergeCell ref="T71:U71"/>
     <mergeCell ref="M72:O72"/>
     <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="T72:U72"/>
     <mergeCell ref="M73:O73"/>
     <mergeCell ref="P73:Q73"/>
     <mergeCell ref="R73:S73"/>
     <mergeCell ref="T73:U73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="R74:S74"/>
     <mergeCell ref="T74:U74"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="T76:U76"/>
     <mergeCell ref="M74:O74"/>
     <mergeCell ref="M75:O75"/>
     <mergeCell ref="P75:Q75"/>
@@ -31406,228 +31672,246 @@
     <mergeCell ref="T75:U75"/>
     <mergeCell ref="M76:O76"/>
     <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="T93:U93"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="M96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="T96:U96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="T97:U97"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="T98:U98"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="T99:U99"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="T100:U100"/>
+    <mergeCell ref="T101:U101"/>
+    <mergeCell ref="R103:S103"/>
+    <mergeCell ref="T103:U103"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="M104:O104"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="T105:U105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="R106:S106"/>
+    <mergeCell ref="T106:U106"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="R109:S109"/>
+    <mergeCell ref="R107:S107"/>
+    <mergeCell ref="T107:U107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="R108:S108"/>
+    <mergeCell ref="T108:U108"/>
+    <mergeCell ref="T109:U109"/>
+    <mergeCell ref="R111:S111"/>
+    <mergeCell ref="T111:U111"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="R110:S110"/>
+    <mergeCell ref="T110:U110"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="R117:S117"/>
+    <mergeCell ref="R115:S115"/>
+    <mergeCell ref="T115:U115"/>
+    <mergeCell ref="M116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="R116:S116"/>
+    <mergeCell ref="T116:U116"/>
+    <mergeCell ref="T117:U117"/>
+    <mergeCell ref="M128:O128"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="T128:U128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="R129:S129"/>
+    <mergeCell ref="T129:U129"/>
+    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="M130:O130"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="R130:S130"/>
+    <mergeCell ref="T130:U130"/>
+    <mergeCell ref="M131:O131"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
     <mergeCell ref="M85:O85"/>
     <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="M86:O86"/>
     <mergeCell ref="P86:Q86"/>
     <mergeCell ref="R86:S86"/>
     <mergeCell ref="T86:U86"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="M87:O87"/>
     <mergeCell ref="P87:Q87"/>
     <mergeCell ref="R87:S87"/>
     <mergeCell ref="T87:U87"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P90:Q90"/>
     <mergeCell ref="R90:S90"/>
     <mergeCell ref="T90:U90"/>
+    <mergeCell ref="M87:O87"/>
     <mergeCell ref="M89:O89"/>
     <mergeCell ref="P89:Q89"/>
     <mergeCell ref="R89:S89"/>
     <mergeCell ref="T89:U89"/>
     <mergeCell ref="M90:O90"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="T94:U94"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="T96:U96"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P90:Q90"/>
     <mergeCell ref="R95:S95"/>
     <mergeCell ref="T95:U95"/>
-    <mergeCell ref="M96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="M97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="T97:U97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="T98:U98"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="M99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="T99:U99"/>
-    <mergeCell ref="M100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="T100:U100"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="T101:U101"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="T104:U104"/>
-    <mergeCell ref="M102:O102"/>
-    <mergeCell ref="M103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="R103:S103"/>
-    <mergeCell ref="T103:U103"/>
-    <mergeCell ref="M104:O104"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="R110:S110"/>
-    <mergeCell ref="R108:S108"/>
-    <mergeCell ref="T108:U108"/>
-    <mergeCell ref="M109:O109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="R109:S109"/>
-    <mergeCell ref="T109:U109"/>
-    <mergeCell ref="T110:U110"/>
-    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="M136:O136"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="R136:S136"/>
+    <mergeCell ref="T136:U136"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="R112:S112"/>
+    <mergeCell ref="T112:U112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="T113:U113"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="R114:S114"/>
+    <mergeCell ref="T114:U114"/>
+    <mergeCell ref="M115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="R119:S119"/>
+    <mergeCell ref="T119:U119"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="R118:S118"/>
+    <mergeCell ref="T118:U118"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="T120:U120"/>
     <mergeCell ref="P121:Q121"/>
     <mergeCell ref="R121:S121"/>
     <mergeCell ref="T121:U121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="M122:O122"/>
     <mergeCell ref="P122:Q122"/>
     <mergeCell ref="R122:S122"/>
     <mergeCell ref="T122:U122"/>
-    <mergeCell ref="M122:O122"/>
     <mergeCell ref="M123:O123"/>
     <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="R125:S125"/>
     <mergeCell ref="R123:S123"/>
     <mergeCell ref="T123:U123"/>
     <mergeCell ref="M124:O124"/>
     <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="M129:O129"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="R129:S129"/>
-    <mergeCell ref="T129:U129"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="T105:U105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="R106:S106"/>
-    <mergeCell ref="T106:U106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="R107:S107"/>
-    <mergeCell ref="T107:U107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="R112:S112"/>
-    <mergeCell ref="T112:U112"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="M111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="R111:S111"/>
-    <mergeCell ref="T111:U111"/>
-    <mergeCell ref="M112:O112"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="M113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="R113:S113"/>
-    <mergeCell ref="T113:U113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="R114:S114"/>
-    <mergeCell ref="T114:U114"/>
-    <mergeCell ref="M114:O114"/>
-    <mergeCell ref="M115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="R115:S115"/>
-    <mergeCell ref="T115:U115"/>
-    <mergeCell ref="M116:O116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="R118:S118"/>
-    <mergeCell ref="R116:S116"/>
-    <mergeCell ref="T116:U116"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="R117:S117"/>
-    <mergeCell ref="T117:U117"/>
-    <mergeCell ref="T118:U118"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="R119:S119"/>
-    <mergeCell ref="T119:U119"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="R124:S124"/>
+    <mergeCell ref="T124:U124"/>
+    <mergeCell ref="T125:U125"/>
+    <mergeCell ref="R127:S127"/>
+    <mergeCell ref="T127:U127"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="M126:O126"/>
     <mergeCell ref="P126:Q126"/>
     <mergeCell ref="R126:S126"/>
-    <mergeCell ref="R124:S124"/>
-    <mergeCell ref="T124:U124"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="R125:S125"/>
-    <mergeCell ref="T125:U125"/>
     <mergeCell ref="T126:U126"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="T128:U128"/>
-    <mergeCell ref="M126:O126"/>
     <mergeCell ref="M127:O127"/>
     <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="R127:S127"/>
-    <mergeCell ref="T127:U127"/>
-    <mergeCell ref="M128:O128"/>
-    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="T131:U131"/>
+    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="R132:S132"/>
+    <mergeCell ref="T132:U132"/>
+    <mergeCell ref="T133:U133"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="M133:O133"/>
+    <mergeCell ref="M134:O134"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="R134:S134"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="M135:O135"/>
+    <mergeCell ref="P135:Q135"/>
   </mergeCells>
-  <conditionalFormatting sqref="R1:S985">
+  <conditionalFormatting sqref="R1:S8 R10:S36 R38:S47 R49:S67 R69:S76 R78:S87 R89:S93 R95:S992">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH(("Fail"),(R1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S985">
+  <conditionalFormatting sqref="R1:S8 R10:S36 R38:S47 R49:S67 R69:S76 R78:S87 R89:S93 R95:S992">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH(("Pass"),(R1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S6 S9:S89 S130:S985">
+  <conditionalFormatting sqref="S1:S6 S10:S36 S38:S47 S49:S67 S69:S76 S78:S87 S89:S93 S95:S96 S137:S992">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(S1))&gt;0</formula>
     </cfRule>
